--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/18_Bitlis_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/18_Bitlis_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{417E255B-633C-43FA-81E8-DD1BAAF95F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF1105B-2B26-4645-91E3-A431FED31725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{5766B1EA-01BA-4067-95FC-3C96E0736E79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{7577A248-4D9D-4171-8D4E-6E788D148B55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{42BF4CEA-EBAD-4F64-A54E-E7B857AA396A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E47CC8B2-7F2D-4821-B3CD-7C6E29F71AD0}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{07C9B022-C493-41D4-BF98-7E7795E34236}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{2A24D0FE-DB45-4190-8D95-08011E93AA0B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{054CB8B6-961D-45FB-A8AA-52FA97C7D889}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{3DDDA3C0-2D24-47E2-A9B0-0C984E4A730E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{B3407A8E-67C7-49AC-B86A-739AEF5B120D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0AA88561-9BB7-460A-8855-1D8D1F958D30}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ADEEE350-EE19-4452-AAA9-9DC3B15105F5}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{3D22B001-E590-43C1-8496-8491C8DC7F41}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{207C5E3A-4281-486D-A33B-15CABB3B3D4B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{0032A94F-D4F7-48AC-B02F-602DBC1E147D}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{7BB045D5-10CA-40D5-9D68-A91C8889B1EC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{F31C3F5C-322E-49FC-AA70-4D5586BEE4ED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666258E3-8E8B-4082-A413-87C3A41E55E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF693C-5CEC-4E39-87D0-8D99CE029B39}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2511,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8E4B75-25DD-495D-A6C6-DF93ECC63BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6796C9-6D53-4096-BF27-1E593CB351E6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3702,7 +3702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCFB994-297E-4DF2-96C9-EEACDE935FBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D34E2E-BDDB-48B9-B3A7-E4F198DB3C95}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4881,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB23AA11-021D-4487-9B9F-32511C14CB5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E864C2-2C71-43C4-97E8-7952FDAE8B23}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6056,7 +6056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1006BD0D-5D4C-45D1-A41F-D39BDA5030F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DD1200-5188-4C41-B238-6B064CEAD7E5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7281,7 +7281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4367773-FD43-4249-8582-B3D70975BE79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A458EC97-3BB6-4157-9A2D-665F65D368AB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8506,7 +8506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6809F04-5903-422C-A668-D4CDF9F0137E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BB26FA-4D44-4885-9801-CEE7E908650E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9731,7 +9731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC227DC0-5C7E-418D-AEFA-8EB8E8A63468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BA733D-113F-4DB7-82CF-B82CEC33459E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10956,7 +10956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DD0A9A-8894-4CAF-83E8-3022C117C0EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6999CBB8-40EA-40F0-AAED-CDCC2ACF833F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12181,7 +12181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB80A2B-5430-46C5-A7A4-9A23A9DC8BEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FFC52A-3F02-4958-B6E2-E554BBEEC2A8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13392,7 +13392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E39D27-B587-4F59-A6B6-BFC37600AE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C99A6-23EF-4114-9F18-4F22C536A48D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14603,7 +14603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07BC608-F19F-4C65-984F-CADB3EF2DABF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB66D9C-84ED-4F09-9E69-2A2BDDBD3230}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
